--- a/xlsx/内阁_intext.xlsx
+++ b/xlsx/内阁_intext.xlsx
@@ -15,327 +15,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>内阁</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>行政机构</t>
+  </si>
+  <si>
+    <t>政策_政策_行政_内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>国家元首</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>君主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E9%A0%98%E5%B0%8E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>最高领导人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%BB%E5%B8%AD</t>
+  </si>
+  <si>
+    <t>国家主席</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E5%A7%94%E5%91%98%E4%BC%9A%E4%B8%BB%E5%B8%AD</t>
+  </si>
+  <si>
+    <t>国务委员会主席</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
+  </si>
+  <si>
+    <t>政府首脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%90%86</t>
+  </si>
+  <si>
+    <t>总理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%BF%E4%BC%9A%E8%AE%AE%E4%B8%BB%E5%B8%AD</t>
+  </si>
+  <si>
+    <t>部长会议主席</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E9%83%A8%E9%95%B7</t>
+  </si>
+  <si>
+    <t>首席部长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%9D%A3</t>
+  </si>
+  <si>
+    <t>总督</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
+  </si>
+  <si>
+    <t>行政长官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E8%B2%A0%E8%B2%AC%E5%88%B6</t>
+  </si>
+  <si>
+    <t>集体负责制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A8</t>
+  </si>
+  <si>
+    <t>部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%B7</t>
+  </si>
+  <si>
+    <t>部长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%87%A3</t>
+  </si>
+  <si>
+    <t>大臣</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
+  </si>
+  <si>
+    <t>国务卿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E9%95%BF</t>
+  </si>
+  <si>
+    <t>省长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%BF</t>
+  </si>
+  <si>
+    <t>市长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>知事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF%E9%95%BF</t>
+  </si>
+  <si>
+    <t>县长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E5%92%8C%E5%9B%BD%E5%AE%B6%E6%9C%80%E9%AB%98%E9%A2%86%E5%AF%BC%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>党和国家最高领导人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>半总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%95%8F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>西敏制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>一党制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
+  </si>
+  <si>
+    <t>军事独裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
+  </si>
+  <si>
+    <t>二元制君主立宪制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%B0%88%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主专制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A2%86%E5%AF%BC%E4%BA%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国领导人列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国政府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%A1%8C%E6%94%BF%E9%83%A8%E9%96%80</t>
+  </si>
+  <si>
+    <t>Template talk-行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>明朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cabinet_(government)</t>
+  </si>
+  <si>
+    <t>en-Cabinet (government)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>英国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>英国国王</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%B8%80%E4%B8%96_(%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A2%A0)</t>
+  </si>
+  <si>
+    <t>乔治一世 (大不列颠)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%BA%8C%E4%B8%96_(%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A2%A0)</t>
+  </si>
+  <si>
+    <t>乔治二世 (大不列颠)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97</t>
+  </si>
+  <si>
+    <t>德意志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%95</t>
+  </si>
+  <si>
+    <t>敕</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BC%9D%E6%A0%BC%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>英国辉格党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%A2%96</t>
+  </si>
+  <si>
+    <t>领袖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E6%B3%A2%E5%B0%94</t>
+  </si>
+  <si>
+    <t>罗伯特·沃波尔</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%98%81</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>行政机构</t>
-  </si>
-  <si>
-    <t>政策_政策_行政_内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>國家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>君主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>總統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E9%A0%98%E5%B0%8E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>最高領導人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%BB%E5%B8%AD</t>
-  </si>
-  <si>
-    <t>国家主席</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E5%A7%94%E5%91%98%E4%BC%9A%E4%B8%BB%E5%B8%AD</t>
-  </si>
-  <si>
-    <t>国务委员会主席</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
-  </si>
-  <si>
-    <t>政府首脑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%90%86</t>
-  </si>
-  <si>
-    <t>总理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%BF%E4%BC%9A%E8%AE%AE%E4%B8%BB%E5%B8%AD</t>
-  </si>
-  <si>
-    <t>部长会议主席</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E9%83%A8%E9%95%B7</t>
-  </si>
-  <si>
-    <t>首席部長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%9D%A3</t>
-  </si>
-  <si>
-    <t>总督</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
-  </si>
-  <si>
-    <t>行政長官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E8%B2%A0%E8%B2%AC%E5%88%B6</t>
-  </si>
-  <si>
-    <t>集體負責制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A8</t>
-  </si>
-  <si>
-    <t>部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%B7</t>
-  </si>
-  <si>
-    <t>部長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%87%A3</t>
-  </si>
-  <si>
-    <t>大臣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
-  </si>
-  <si>
-    <t>國務卿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E9%95%BF</t>
-  </si>
-  <si>
-    <t>省长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%BF</t>
-  </si>
-  <si>
-    <t>市长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>知事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF%E9%95%BF</t>
-  </si>
-  <si>
-    <t>县长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E5%92%8C%E5%9B%BD%E5%AE%B6%E6%9C%80%E9%AB%98%E9%A2%86%E5%AF%BC%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>党和国家最高领导人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>半总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>議會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%95%8F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>西敏制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>一党制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
-  </si>
-  <si>
-    <t>軍事獨裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
-  </si>
-  <si>
-    <t>二元制君主立宪制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%B0%88%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主專制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A2%86%E5%AF%BC%E4%BA%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国领导人列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各國政府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%A1%8C%E6%94%BF%E9%83%A8%E9%96%80</t>
-  </si>
-  <si>
-    <t>Template talk-行政部門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>明朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cabinet_(government)</t>
-  </si>
-  <si>
-    <t>en-Cabinet (government)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>英國歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>英國國王</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%B8%80%E4%B8%96_(%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A2%A0)</t>
-  </si>
-  <si>
-    <t>乔治一世 (大不列颠)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%BA%8C%E4%B8%96_(%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A2%A0)</t>
-  </si>
-  <si>
-    <t>乔治二世 (大不列颠)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97</t>
-  </si>
-  <si>
-    <t>德意志</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%95</t>
-  </si>
-  <si>
-    <t>敕</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BC%9D%E6%A0%BC%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>英國輝格黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%A2%96</t>
-  </si>
-  <si>
-    <t>領袖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E6%B3%A2%E5%B0%94</t>
-  </si>
-  <si>
-    <t>罗伯特·沃波尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%A0%98</t>
   </si>
   <si>
-    <t>首領</t>
+    <t>首领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF</t>
   </si>
   <si>
-    <t>軍政</t>
+    <t>军政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>英國政治</t>
+    <t>英国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D%E5%86%85%E9%98%81</t>
@@ -377,13 +380,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>秘書</t>
+    <t>秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%95%8F</t>
   </si>
   <si>
-    <t>顧問</t>
+    <t>顾问</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E8%BE%85</t>
@@ -401,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%86%B2%E5%AE%97</t>
   </si>
   <si>
-    <t>明憲宗</t>
+    <t>明宪宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%8C%96</t>
@@ -413,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E5%BB%B7%E5%92%8C</t>
   </si>
   <si>
-    <t>楊廷和</t>
+    <t>杨廷和</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E8%A8%80</t>
@@ -425,19 +428,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9A%B4%E5%B5%A9</t>
   </si>
   <si>
-    <t>嚴嵩</t>
+    <t>严嵩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E9%9A%8E</t>
   </si>
   <si>
-    <t>徐階</t>
+    <t>徐阶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%B1%85%E6%AD%A3</t>
   </si>
   <si>
-    <t>張居正</t>
+    <t>张居正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E4%BB%A3</t>
@@ -455,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%A9%9F%E8%99%95</t>
   </si>
   <si>
-    <t>軍機處</t>
+    <t>军机处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%9A%E6%B8%85</t>
@@ -473,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%B6%E8%A6%AA%E7%8E%8B%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>慶親王內閣</t>
+    <t>庆亲王内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -491,25 +494,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
-    <t>部长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%A6%96%E9%95%B7%E5%88%B6</t>
   </si>
   <si>
-    <t>雙首長制</t>
+    <t>双首长制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%86%85%E9%98%81</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>加拿大內閣</t>
+    <t>加拿大内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%86%85%E9%98%81</t>
@@ -545,25 +545,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>日本內閣</t>
+    <t>日本内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>荷蘭內閣</t>
+    <t>荷兰内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>伊朗內閣</t>
+    <t>伊朗内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>馬來西亞內閣</t>
+    <t>马来西亚内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%86%85%E9%98%81</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%A1%8C%E6%94%BF%E9%99%A2</t>
   </si>
   <si>
-    <t>中華民國行政院</t>
+    <t>中华民国行政院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%A1%8C%E6%94%BF%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>香港特別行政區行政會議</t>
+    <t>香港特别行政区行政会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%A1%8C%E6%94%BF%E6%9C%83</t>
   </si>
   <si>
-    <t>澳門特別行政區行政會</t>
+    <t>澳门特别行政区行政会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%AD%90%E5%86%85%E9%98%81</t>
@@ -612,15 +612,6 @@
   </si>
   <si>
     <t>行政局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -969,7 +960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2470,10 +2461,10 @@
         <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -2496,10 +2487,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2525,10 +2516,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2554,10 +2545,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2583,10 +2574,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2612,10 +2603,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2641,10 +2632,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2670,13 +2661,13 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
       </c>
-      <c r="F59" t="s">
-        <v>114</v>
-      </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -2699,10 +2690,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2728,13 +2719,13 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
       </c>
-      <c r="F61" t="s">
-        <v>118</v>
-      </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -2757,10 +2748,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2786,13 +2777,13 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
       </c>
-      <c r="F63" t="s">
-        <v>122</v>
-      </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -2815,13 +2806,13 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
       </c>
-      <c r="F64" t="s">
-        <v>124</v>
-      </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -2844,13 +2835,13 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
       </c>
-      <c r="F65" t="s">
-        <v>126</v>
-      </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -2873,10 +2864,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2902,10 +2893,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2931,10 +2922,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2960,10 +2951,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2989,10 +2980,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3018,10 +3009,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3047,10 +3038,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3076,10 +3067,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3105,10 +3096,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3134,10 +3125,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3163,10 +3154,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3192,10 +3183,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3221,10 +3212,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3250,10 +3241,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3279,13 +3270,13 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
       </c>
-      <c r="F80" t="s">
-        <v>154</v>
-      </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -3308,10 +3299,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3337,13 +3328,13 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
       </c>
-      <c r="F82" t="s">
-        <v>158</v>
-      </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -3366,13 +3357,13 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -3395,13 +3386,13 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -3424,13 +3415,13 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -3453,10 +3444,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3482,10 +3473,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3511,10 +3502,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3540,10 +3531,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3569,10 +3560,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3598,10 +3589,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3627,10 +3618,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3656,10 +3647,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3685,10 +3676,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3714,10 +3705,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3743,10 +3734,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3772,10 +3763,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3801,10 +3792,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3830,10 +3821,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3859,10 +3850,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3888,10 +3879,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3917,10 +3908,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3946,10 +3937,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3975,47 +3966,18 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>104</v>
-      </c>
-      <c r="E105" t="s">
-        <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>201</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>4</v>
-      </c>
-      <c r="I105" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/内阁_intext.xlsx
+++ b/xlsx/内阁_intext.xlsx
@@ -29,7 +29,7 @@
     <t>行政机构</t>
   </si>
   <si>
-    <t>政策_政策_行政_内阁</t>
+    <t>体育运动_体育运动_明成祖_内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
